--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_2_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_2_square_10_.xlsx
@@ -581,39 +581,39 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.06000000000048</v>
+        <v>25.02000000000047</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>9.214851104388799e-15</v>
+        <v>1.652011860642233e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>9.214851104388799e-15</v>
+        <v>1.652011860642233e-13</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>59.26732867523528</v>
+        <v>59.74340732691148</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[48.73997126651895, 69.79468608395162]</t>
+          <t>[47.953426565621896, 71.53338808820106]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>8.659739592076221e-15</v>
+        <v>2.735589532676386e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>8.659739592076221e-15</v>
+        <v>2.735589532676386e-13</v>
       </c>
       <c r="P2" t="n">
-        <v>1.641552918091964</v>
+        <v>1.616395018964117</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.4277107755052718, 1.8553950606786564]</t>
+          <t>[1.389973926813501, 1.8428161111147334]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>55.79184245481424</v>
+        <v>55.05382600552102</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[48.60258566432029, 62.98109924530819]</t>
+          <t>[47.17090297896537, 62.93674903207666]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>18.51279279279315</v>
+        <v>18.58342342342378</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.65989989990024</v>
+        <v>17.68180180180214</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.36568568568605</v>
+        <v>19.48504504504542</v>
       </c>
     </row>
     <row r="3">
@@ -667,53 +667,53 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.06000000000048</v>
+        <v>25.02000000000047</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.890221478286549e-13</v>
+        <v>2.364775042451583e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>3.890221478286549e-13</v>
+        <v>2.364775042451583e-14</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>57.64320282439388</v>
+        <v>58.25625411648549</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[45.912189602249526, 69.37421604653824]</t>
+          <t>[47.00222047271805, 69.51028776025292]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>7.189804307472514e-13</v>
+        <v>1.385558334732195e-13</v>
       </c>
       <c r="O3" t="n">
-        <v>7.189804307472514e-13</v>
+        <v>1.385558334732195e-13</v>
       </c>
       <c r="P3" t="n">
-        <v>1.528342372016657</v>
+        <v>1.427710775505271</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.3019212798660407, 1.7547634641672731]</t>
+          <t>[1.2012896833546556, 1.6541318676558863]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="T3" t="n">
-        <v>58.27941033169479</v>
+        <v>53.72203714886109</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[50.48415107479934, 66.07466958859024]</t>
+          <t>[46.49308630622275, 60.95098799149943]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>18.96432432432469</v>
+        <v>19.33477477477514</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.0612612612616</v>
+        <v>18.4331531531535</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.86738738738777</v>
+        <v>20.23639639639678</v>
       </c>
     </row>
     <row r="4">
@@ -753,53 +753,53 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.06000000000048</v>
+        <v>25.02000000000047</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>5.88418203051333e-15</v>
+        <v>1.055822096418524e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>5.88418203051333e-15</v>
+        <v>1.055822096418524e-13</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>67.88163454330748</v>
+        <v>66.92246680502484</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[53.75566549450882, 82.00760359210615]</t>
+          <t>[50.840078883702105, 83.00485472634757]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.431965657161527e-12</v>
+        <v>9.673795098308346e-11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.431965657161527e-12</v>
+        <v>9.673795098308346e-11</v>
       </c>
       <c r="P4" t="n">
-        <v>1.17613178422681</v>
+        <v>1.113237036407194</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.9622896416401163, 1.3899739268135027]</t>
+          <t>[0.8616580451287321, 1.3648160276856567]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.909583602355269e-14</v>
+        <v>1.68534075584148e-11</v>
       </c>
       <c r="S4" t="n">
-        <v>1.909583602355269e-14</v>
+        <v>1.68534075584148e-11</v>
       </c>
       <c r="T4" t="n">
-        <v>54.47429823629893</v>
+        <v>58.93236767306555</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[46.46263172600553, 62.48596474659232]</t>
+          <t>[50.34895512603081, 67.51578022010028]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>20.36908908908948</v>
+        <v>20.58702702702741</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.51619619619657</v>
+        <v>19.58522522522559</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.22198198198239</v>
+        <v>21.58882882882924</v>
       </c>
     </row>
     <row r="5">
@@ -839,53 +839,53 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.06000000000048</v>
+        <v>25.02000000000047</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>5.405675906899887e-13</v>
+        <v>4.350030335942279e-10</v>
       </c>
       <c r="I5" t="n">
-        <v>5.405675906899887e-13</v>
+        <v>4.350030335942279e-10</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>61.38638244344421</v>
+        <v>50.53834377401991</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[45.92177668184104, 76.85098820504739]</t>
+          <t>[34.63392487497785, 66.44276267306198]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.506070989089949e-10</v>
+        <v>7.938767465631713e-08</v>
       </c>
       <c r="O5" t="n">
-        <v>3.506070989089949e-10</v>
+        <v>7.938767465631713e-08</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9245527929483472</v>
+        <v>0.8365001460008861</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.6603948521059628, 1.1887107337907317]</t>
+          <t>[0.5220264069028087, 1.1509738850989635]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>8.609838841877604e-09</v>
+        <v>2.773884916429381e-06</v>
       </c>
       <c r="S5" t="n">
-        <v>8.609838841877604e-09</v>
+        <v>2.773884916429381e-06</v>
       </c>
       <c r="T5" t="n">
-        <v>57.75760656953489</v>
+        <v>54.44483612504185</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.54564451207318, 65.96956862699659]</t>
+          <t>[46.0387369759204, 62.85093527416329]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>21.3724924924929</v>
+        <v>21.68900900900942</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.31891891891931</v>
+        <v>20.43675675675714</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.42606606606649</v>
+        <v>22.94126126126169</v>
       </c>
     </row>
     <row r="6">
@@ -925,53 +925,53 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.06000000000048</v>
+        <v>25.02000000000047</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.543210004228968e-14</v>
+        <v>2.837496904106729e-11</v>
       </c>
       <c r="I6" t="n">
-        <v>1.543210004228968e-14</v>
+        <v>2.837496904106729e-11</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>57.18219690193834</v>
+        <v>59.72705689920775</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[44.51924197645879, 69.8451518274179]</t>
+          <t>[42.476057927688586, 76.9780558707269]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>9.305445303198212e-12</v>
+        <v>1.116246006738209e-08</v>
       </c>
       <c r="O6" t="n">
-        <v>9.305445303198212e-12</v>
+        <v>1.116246006738209e-08</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5094474573388856</v>
+        <v>0.5723422051585008</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.2704474156243464, 0.7484474990534249]</t>
+          <t>[0.2830263651882694, 0.8616580451287321]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>9.255540258745754e-05</v>
+        <v>0.0002448464410336193</v>
       </c>
       <c r="S6" t="n">
-        <v>9.255540258745754e-05</v>
+        <v>0.0002448464410336193</v>
       </c>
       <c r="T6" t="n">
-        <v>49.6629722715547</v>
+        <v>58.01929079620768</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[42.90003049733234, 56.42591404577706]</t>
+          <t>[49.060565354121294, 66.97801623829407]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>23.02810810810855</v>
+        <v>22.74090090090133</v>
       </c>
       <c r="Y6" t="n">
-        <v>22.0748748748753</v>
+        <v>21.58882882882924</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.9813413413418</v>
+        <v>23.89297297297342</v>
       </c>
     </row>
     <row r="7">
@@ -1011,53 +1011,53 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.06000000000048</v>
+        <v>25.02000000000047</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.507682867440963e-13</v>
+        <v>1.048272579851073e-12</v>
       </c>
       <c r="I7" t="n">
-        <v>1.507682867440963e-13</v>
+        <v>1.048272579851073e-12</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>60.43838676800649</v>
+        <v>54.15874055876752</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[45.82202577584505, 75.05474776016793]</t>
+          <t>[40.864401980414854, 67.45307913712018]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.152882234123354e-10</v>
+        <v>1.736919497119516e-10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.152882234123354e-10</v>
+        <v>1.736919497119516e-10</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4591316590831935</v>
+        <v>0.4213948103914236</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.20755266780473214, 0.7107106503616549]</t>
+          <t>[0.16981581911296217, 0.672973801669885]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.0006293070293703629</v>
+        <v>0.001534755517919928</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0006293070293703629</v>
+        <v>0.001534755517919928</v>
       </c>
       <c r="T7" t="n">
-        <v>55.50504219577324</v>
+        <v>49.59191416137173</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[47.86436021305856, 63.145724178487924]</t>
+          <t>[42.3270024924416, 56.85682583030185]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>23.22878878878923</v>
+        <v>23.34198198198242</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.22538538538581</v>
+        <v>22.3401801801806</v>
       </c>
       <c r="Z7" t="n">
-        <v>24.23219219219265</v>
+        <v>24.34378378378424</v>
       </c>
     </row>
     <row r="8">
@@ -1097,53 +1097,53 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.06000000000048</v>
+        <v>25.02000000000047</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>9.097977926586509e-11</v>
+        <v>2.204458837695711e-12</v>
       </c>
       <c r="I8" t="n">
-        <v>9.097977926586509e-11</v>
+        <v>2.204458837695711e-12</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>55.42357857219109</v>
+        <v>62.16696715062076</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[41.625620522170706, 69.22153662221147]</t>
+          <t>[48.79518261829013, 75.53875168295139]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.54844811919952e-10</v>
+        <v>3.911537760359352e-12</v>
       </c>
       <c r="O8" t="n">
-        <v>2.54844811919952e-10</v>
+        <v>3.911537760359352e-12</v>
       </c>
       <c r="P8" t="n">
-        <v>0.09434212172942313</v>
+        <v>0.06918422260157797</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.1823947686768852, 0.37107901213573147]</t>
+          <t>[-0.1698158191129595, 0.30818426431611545]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.4958414942366054</v>
+        <v>0.5627837331447862</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4958414942366054</v>
+        <v>0.5627837331447862</v>
       </c>
       <c r="T8" t="n">
-        <v>56.26305390184616</v>
+        <v>54.97275410714983</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[47.6720595336505, 64.85404827004183]</t>
+          <t>[46.44861192874386, 63.49689628555579]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>24.6837237237242</v>
+        <v>24.74450450450497</v>
       </c>
       <c r="Y8" t="n">
-        <v>23.57997997998043</v>
+        <v>23.79279279279324</v>
       </c>
       <c r="Z8" t="n">
-        <v>25.78746746746796</v>
+        <v>25.69621621621669</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.92000000000014</v>
+        <v>22.87000000000014</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.352473688598366e-12</v>
+        <v>2.488853567683691e-11</v>
       </c>
       <c r="I9" t="n">
-        <v>1.352473688598366e-12</v>
+        <v>2.488853567683691e-11</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>51.40926728255215</v>
+        <v>56.88710615745045</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[38.55635188286497, 64.26218268223933]</t>
+          <t>[40.74725204145322, 73.02696027344767]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2.857312164650239e-10</v>
+        <v>7.269150614774844e-09</v>
       </c>
       <c r="O9" t="n">
-        <v>2.857312164650239e-10</v>
+        <v>7.269150614774844e-09</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.2893158399702314</v>
+        <v>-0.4025263860455386</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.5660527303765388, -0.012578949563923914]</t>
+          <t>[-0.69184222601577, -0.11321054607530723]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.0408467632386218</v>
+        <v>0.007458797398210537</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0408467632386218</v>
+        <v>0.007458797398210537</v>
       </c>
       <c r="T9" t="n">
-        <v>52.41355757525069</v>
+        <v>54.48203484921489</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[45.18189599344082, 59.645219157060566]</t>
+          <t>[45.6952789312273, 63.26879076720248]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X9" t="n">
-        <v>1.055375375375384</v>
+        <v>1.465145145145154</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.04588588588589038</v>
+        <v>0.4120720720720743</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.064864864864878</v>
+        <v>2.518218218218234</v>
       </c>
     </row>
     <row r="10">
@@ -1269,53 +1269,53 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.92000000000014</v>
+        <v>22.87000000000014</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>5.275224701506431e-12</v>
+        <v>1.243449787580175e-13</v>
       </c>
       <c r="I10" t="n">
-        <v>5.275224701506431e-12</v>
+        <v>1.243449787580175e-13</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>54.44063709105873</v>
+        <v>61.8063837150399</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[42.463937665242184, 66.41733651687527]</t>
+          <t>[49.99351898765863, 73.61924844242117]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>7.660316825308655e-12</v>
+        <v>9.814371537686384e-14</v>
       </c>
       <c r="O10" t="n">
-        <v>7.660316825308655e-12</v>
+        <v>9.814371537686384e-14</v>
       </c>
       <c r="P10" t="n">
         <v>-0.02515789912784605</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.27044741562434726, 0.22013161736865516]</t>
+          <t>[-0.2515789912784623, 0.20126319302277018]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.8372738707916023</v>
+        <v>0.8239341904840236</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8372738707916023</v>
+        <v>0.8239341904840236</v>
       </c>
       <c r="T10" t="n">
-        <v>52.58198168025555</v>
+        <v>60.85499190112407</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[44.579764156683815, 60.58419920382729]</t>
+          <t>[52.75850704390656, 68.95147675834158]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1325,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0.09177177177177143</v>
+        <v>0.09157157157157059</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.8030030030030121</v>
+        <v>-0.7325725725725803</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.9865465465465549</v>
+        <v>0.9157157157157215</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.92000000000014</v>
+        <v>22.87000000000014</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.984301611912542e-12</v>
+        <v>5.759437371466447e-11</v>
       </c>
       <c r="I11" t="n">
-        <v>1.984301611912542e-12</v>
+        <v>5.759437371466447e-11</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>58.64689384990286</v>
+        <v>57.72747077184891</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[44.702244655206755, 72.59154304459896]</t>
+          <t>[41.81143857416224, 73.64350296953558]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>7.190981143878616e-11</v>
+        <v>3.602195874918834e-09</v>
       </c>
       <c r="O11" t="n">
-        <v>7.190981143878616e-11</v>
+        <v>3.602195874918834e-09</v>
       </c>
       <c r="P11" t="n">
-        <v>0.3207632138800394</v>
+        <v>0.3459211130078854</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.04402632347373103, 0.5975001042863477]</t>
+          <t>[0.04402632347373103, 0.6478159025420398]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.0240900286972292</v>
+        <v>0.02566224587866106</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0240900286972292</v>
+        <v>0.02566224587866106</v>
       </c>
       <c r="T11" t="n">
-        <v>56.88514597840317</v>
+        <v>56.35818314239449</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[48.568266161367546, 65.20202579543879]</t>
+          <t>[47.219203978790546, 65.49716230599844]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X11" t="n">
-        <v>21.74990990991004</v>
+        <v>21.61089089089102</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.74042042042055</v>
+        <v>20.51203203203215</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.75939939939954</v>
+        <v>22.70974974974988</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.92000000000014</v>
+        <v>22.87000000000014</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>8.926193117986259e-14</v>
+        <v>1.709077324107966e-12</v>
       </c>
       <c r="I12" t="n">
-        <v>8.926193117986259e-14</v>
+        <v>1.709077324107966e-12</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>54.1645497692945</v>
+        <v>60.74491229301803</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[41.077611662216526, 67.25148787637247]</t>
+          <t>[44.65712931427012, 76.83269527176593]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1.123623416532382e-10</v>
+        <v>1.303401164776119e-09</v>
       </c>
       <c r="O12" t="n">
-        <v>1.123623416532382e-10</v>
+        <v>1.303401164776119e-09</v>
       </c>
       <c r="P12" t="n">
-        <v>0.6352369529781177</v>
+        <v>0.5094474573388847</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.38365796169965716, 0.8868159442565782]</t>
+          <t>[0.24528951649649944, 0.77360539818127]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>6.913776647188286e-06</v>
+        <v>0.0003336335207546615</v>
       </c>
       <c r="S12" t="n">
-        <v>6.913776647188286e-06</v>
+        <v>0.0003336335207546615</v>
       </c>
       <c r="T12" t="n">
-        <v>49.68632622205167</v>
+        <v>52.92320077856172</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[42.790433212526565, 56.58221923157677]</t>
+          <t>[44.4119331877266, 61.43446836939684]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X12" t="n">
-        <v>20.60276276276289</v>
+        <v>21.0156756756758</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.68504504504517</v>
+        <v>20.05417417417429</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.5204804804806</v>
+        <v>21.97717717717731</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.92000000000014</v>
+        <v>22.87000000000014</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>6.501676974579595e-11</v>
+        <v>1.321165399303936e-14</v>
       </c>
       <c r="I13" t="n">
-        <v>6.501676974579595e-11</v>
+        <v>1.321165399303936e-14</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>56.84674258032102</v>
+        <v>62.16862430676272</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[39.55129873113094, 74.1421864295111]</t>
+          <t>[47.53712357362312, 76.80012503990233]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.738091480798289e-08</v>
+        <v>5.392419843985863e-11</v>
       </c>
       <c r="O13" t="n">
-        <v>3.738091480798289e-08</v>
+        <v>5.392419843985863e-11</v>
       </c>
       <c r="P13" t="n">
-        <v>0.836500146000887</v>
+        <v>0.8490790955648082</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.5471843060306547, 1.1258159859711192]</t>
+          <t>[0.6226580034141929, 1.0755001877154236]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>5.706550001427502e-07</v>
+        <v>1.554351980459501e-09</v>
       </c>
       <c r="S13" t="n">
-        <v>5.706550001427502e-07</v>
+        <v>1.554351980459501e-09</v>
       </c>
       <c r="T13" t="n">
-        <v>54.9702727920621</v>
+        <v>53.50565769073326</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[46.11011184458958, 63.83043373953463]</t>
+          <t>[46.09917765544421, 60.91213772602231]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>19.86858858858871</v>
+        <v>19.77945945945958</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.81321321321332</v>
+        <v>18.95531531531543</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.92396396396409</v>
+        <v>20.60360360360373</v>
       </c>
     </row>
     <row r="14">
@@ -1613,53 +1613,53 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.92000000000014</v>
+        <v>22.87000000000014</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>3.108624468950438e-15</v>
+        <v>1.426372353563465e-10</v>
       </c>
       <c r="I14" t="n">
-        <v>3.108624468950438e-15</v>
+        <v>1.426372353563465e-10</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>62.14850412127798</v>
+        <v>52.98029653514161</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[49.24335650456878, 75.05365173798718]</t>
+          <t>[37.57104222601566, 68.38955084426756]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>1.340705324537339e-12</v>
+        <v>1.316892594971364e-08</v>
       </c>
       <c r="O14" t="n">
-        <v>1.340705324537339e-12</v>
+        <v>1.316892594971364e-08</v>
       </c>
       <c r="P14" t="n">
-        <v>1.150973885098963</v>
+        <v>1.10065808684327</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0.9245527929483472, 1.3773949772495797]</t>
+          <t>[0.77360539818127, 1.427710775505271]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.473576898864849e-13</v>
+        <v>2.174563329404577e-08</v>
       </c>
       <c r="S14" t="n">
-        <v>2.473576898864849e-13</v>
+        <v>2.174563329404577e-08</v>
       </c>
       <c r="T14" t="n">
-        <v>53.04137723440793</v>
+        <v>57.16681805643416</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[46.0182331420137, 60.064521326802165]</t>
+          <t>[48.76518807289689, 65.56844803997143]</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>18.72144144144156</v>
+        <v>18.86374374374386</v>
       </c>
       <c r="Y14" t="n">
-        <v>17.89549549549561</v>
+        <v>17.67331331331342</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.54738738738751</v>
+        <v>20.0541741741743</v>
       </c>
     </row>
     <row r="15">
@@ -1699,39 +1699,39 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.92000000000014</v>
+        <v>22.87000000000014</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>3.52484708088241e-12</v>
+        <v>1.349031997222028e-12</v>
       </c>
       <c r="I15" t="n">
-        <v>3.52484708088241e-12</v>
+        <v>1.349031997222028e-12</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>64.53566145376459</v>
+        <v>59.65936831204451</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[51.06090502517188, 78.0104178823573]</t>
+          <t>[47.35727472058187, 71.96146190350714]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>1.587174836004124e-12</v>
+        <v>1.081135181379977e-12</v>
       </c>
       <c r="O15" t="n">
-        <v>1.587174836004124e-12</v>
+        <v>1.081135181379977e-12</v>
       </c>
       <c r="P15" t="n">
-        <v>1.578658170272349</v>
+        <v>1.566079220708425</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[1.3522370781217319, 1.8050792624229661]</t>
+          <t>[1.3396581285578089, 1.7925003128590413]</t>
         </is>
       </c>
       <c r="R15" t="n">
@@ -1741,27 +1741,27 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>56.32126652354626</v>
+        <v>52.77918655749731</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[47.3352658877922, 65.30726715930032]</t>
+          <t>[44.73491782580456, 60.823455289190065]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>17.16132132132143</v>
+        <v>17.16966966966977</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.33537537537547</v>
+        <v>16.34552552552562</v>
       </c>
       <c r="Z15" t="n">
-        <v>17.98726726726738</v>
+        <v>17.99381381381392</v>
       </c>
     </row>
     <row r="16">
@@ -1785,39 +1785,39 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>22.92000000000014</v>
+        <v>22.87000000000014</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>4.836020472964719e-12</v>
+        <v>9.863221350769891e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>4.836020472964719e-12</v>
+        <v>9.863221350769891e-13</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>57.67776301346005</v>
+        <v>61.75609501976778</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[43.98085489643947, 71.37467113048064]</t>
+          <t>[47.1650100889331, 76.34717995060245]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>6.940892305351554e-11</v>
+        <v>6.017653042533766e-11</v>
       </c>
       <c r="O16" t="n">
-        <v>6.940892305351554e-11</v>
+        <v>6.017653042533766e-11</v>
       </c>
       <c r="P16" t="n">
-        <v>1.729605565039425</v>
+        <v>1.817658211986887</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[1.478026573760963, 1.9811845563178876]</t>
+          <t>[1.566079220708425, 2.0692372032653497]</t>
         </is>
       </c>
       <c r="R16" t="n">
@@ -1827,11 +1827,11 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>54.5562016999293</v>
+        <v>56.56220241327769</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[46.42796576925429, 62.6844376306043]</t>
+          <t>[48.268032114287806, 64.85637271226757]</t>
         </is>
       </c>
       <c r="V16" t="n">
@@ -1841,13 +1841,13 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>16.6106906906908</v>
+        <v>16.25395395395405</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.69297297297307</v>
+        <v>15.33823823823833</v>
       </c>
       <c r="Z16" t="n">
-        <v>17.52840840840852</v>
+        <v>17.16966966966977</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_2_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_2_square_10_.xlsx
@@ -581,39 +581,39 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.02000000000047</v>
+        <v>24.93000000000046</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.652011860642233e-13</v>
+        <v>2.220446049250313e-15</v>
       </c>
       <c r="I2" t="n">
-        <v>1.652011860642233e-13</v>
+        <v>2.220446049250313e-15</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>59.74340732691148</v>
+        <v>61.36389669480631</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[47.953426565621896, 71.53338808820106]</t>
+          <t>[50.71716346010868, 72.01062992950393]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2.735589532676386e-13</v>
+        <v>3.996802888650564e-15</v>
       </c>
       <c r="O2" t="n">
-        <v>2.735589532676386e-13</v>
+        <v>3.996802888650564e-15</v>
       </c>
       <c r="P2" t="n">
-        <v>1.616395018964117</v>
+        <v>1.59123711983627</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.389973926813501, 1.8428161111147334]</t>
+          <t>[1.402552876377423, 1.7799213632951174]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>55.05382600552102</v>
+        <v>58.11578425397864</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[47.17090297896537, 62.93674903207666]</t>
+          <t>[50.99626915799908, 65.2352993499582]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>18.58342342342378</v>
+        <v>18.61639639639674</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.68180180180214</v>
+        <v>17.86774774774808</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.48504504504542</v>
+        <v>19.36504504504541</v>
       </c>
     </row>
     <row r="3">
@@ -667,53 +667,53 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.02000000000047</v>
+        <v>24.93000000000046</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.364775042451583e-14</v>
+        <v>5.669908986760674e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.364775042451583e-14</v>
+        <v>5.669908986760674e-13</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>58.25625411648549</v>
+        <v>52.86337491970474</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[47.00222047271805, 69.51028776025292]</t>
+          <t>[40.83167418820352, 64.89507565120596]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.385558334732195e-13</v>
+        <v>2.070810189991334e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.385558334732195e-13</v>
+        <v>2.070810189991334e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>1.427710775505271</v>
+        <v>1.389973926813502</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.2012896833546556, 1.6541318676558863]</t>
+          <t>[1.1383949355350396, 1.6415529180919641]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.643130076445232e-14</v>
       </c>
       <c r="S3" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.643130076445232e-14</v>
       </c>
       <c r="T3" t="n">
-        <v>53.72203714886109</v>
+        <v>51.67035118993972</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[46.49308630622275, 60.95098799149943]</t>
+          <t>[44.469221802723, 58.87148057715645]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>19.33477477477514</v>
+        <v>19.41495495495531</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.4331531531535</v>
+        <v>18.4167567567571</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.23639639639678</v>
+        <v>20.41315315315353</v>
       </c>
     </row>
     <row r="4">
@@ -753,53 +753,53 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.02000000000047</v>
+        <v>24.93000000000046</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.055822096418524e-13</v>
+        <v>1.310063169057685e-14</v>
       </c>
       <c r="I4" t="n">
-        <v>1.055822096418524e-13</v>
+        <v>1.310063169057685e-14</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>66.92246680502484</v>
+        <v>57.1861367641383</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[50.840078883702105, 83.00485472634757]</t>
+          <t>[44.83152587858633, 69.54074764969027]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>9.673795098308346e-11</v>
+        <v>4.463096558993129e-12</v>
       </c>
       <c r="O4" t="n">
-        <v>9.673795098308346e-11</v>
+        <v>4.463096558993129e-12</v>
       </c>
       <c r="P4" t="n">
-        <v>1.113237036407194</v>
+        <v>1.125815985971117</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.8616580451287321, 1.3648160276856567]</t>
+          <t>[0.8868159442565782, 1.364816027685655]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.68534075584148e-11</v>
+        <v>2.632338791386246e-12</v>
       </c>
       <c r="S4" t="n">
-        <v>1.68534075584148e-11</v>
+        <v>2.632338791386246e-12</v>
       </c>
       <c r="T4" t="n">
-        <v>58.93236767306555</v>
+        <v>51.28344451024576</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[50.34895512603081, 67.51578022010028]</t>
+          <t>[44.385845646602064, 58.18104337388945]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>20.58702702702741</v>
+        <v>20.46306306306344</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.58522522522559</v>
+        <v>19.51477477477514</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.58882882882924</v>
+        <v>21.41135135135174</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.02000000000047</v>
+        <v>24.93000000000046</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>4.350030335942279e-10</v>
+        <v>1.756221834625649e-10</v>
       </c>
       <c r="I5" t="n">
-        <v>4.350030335942279e-10</v>
+        <v>1.756221834625649e-10</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>50.53834377401991</v>
+        <v>52.54064296815638</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[34.63392487497785, 66.44276267306198]</t>
+          <t>[36.93273721220784, 68.14854872410491]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>7.938767465631713e-08</v>
+        <v>2.16112858719697e-08</v>
       </c>
       <c r="O5" t="n">
-        <v>7.938767465631713e-08</v>
+        <v>2.16112858719697e-08</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8365001460008861</v>
+        <v>0.9622896416401163</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.5220264069028087, 1.1509738850989635]</t>
+          <t>[0.6352369529781168, 1.2893423303021159]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.773884916429381e-06</v>
+        <v>4.019032511237697e-07</v>
       </c>
       <c r="S5" t="n">
-        <v>2.773884916429381e-06</v>
+        <v>4.019032511237697e-07</v>
       </c>
       <c r="T5" t="n">
-        <v>54.44483612504185</v>
+        <v>54.05433060264231</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[46.0387369759204, 62.85093527416329]</t>
+          <t>[45.530345066501596, 62.57831613878302]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X5" t="n">
-        <v>21.68900900900942</v>
+        <v>21.11189189189228</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.43675675675714</v>
+        <v>19.8142342342346</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.94126126126169</v>
+        <v>22.40954954954996</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.02000000000047</v>
+        <v>24.93000000000046</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.837496904106729e-11</v>
+        <v>2.747182592521824e-09</v>
       </c>
       <c r="I6" t="n">
-        <v>2.837496904106729e-11</v>
+        <v>2.747182592521824e-09</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>59.72705689920775</v>
+        <v>49.26873510067522</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[42.476057927688586, 76.9780558707269]</t>
+          <t>[32.21984108199857, 66.31762911935188]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1.116246006738209e-08</v>
+        <v>5.763863517582735e-07</v>
       </c>
       <c r="O6" t="n">
-        <v>1.116246006738209e-08</v>
+        <v>5.763863517582735e-07</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5723422051585008</v>
+        <v>0.6478159025420398</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.2830263651882694, 0.8616580451287321]</t>
+          <t>[0.2956053147521933, 1.0000264903318863]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0002448464410336193</v>
+        <v>0.0005770707952867937</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0002448464410336193</v>
+        <v>0.0005770707952867937</v>
       </c>
       <c r="T6" t="n">
-        <v>58.01929079620768</v>
+        <v>50.33068331496606</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[49.060565354121294, 66.97801623829407]</t>
+          <t>[41.59768783367985, 59.06367879625227]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>3.996802888650564e-15</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>3.996802888650564e-15</v>
       </c>
       <c r="X6" t="n">
-        <v>22.74090090090133</v>
+        <v>22.35963963964005</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.58882882882924</v>
+        <v>20.96216216216255</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.89297297297342</v>
+        <v>23.75711711711755</v>
       </c>
     </row>
     <row r="7">
@@ -1011,53 +1011,53 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.02000000000047</v>
+        <v>24.93000000000046</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.048272579851073e-12</v>
+        <v>1.586675235643042e-11</v>
       </c>
       <c r="I7" t="n">
-        <v>1.048272579851073e-12</v>
+        <v>1.586675235643042e-11</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>54.15874055876752</v>
+        <v>59.73227136159179</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[40.864401980414854, 67.45307913712018]</t>
+          <t>[43.49607571423297, 75.96846700895061]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.736919497119516e-10</v>
+        <v>2.524539244319612e-09</v>
       </c>
       <c r="O7" t="n">
-        <v>1.736919497119516e-10</v>
+        <v>2.524539244319612e-09</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4213948103914236</v>
+        <v>0.3710790121357315</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.16981581911296217, 0.672973801669885]</t>
+          <t>[0.081763172165501, 0.6603948521059619]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.001534755517919928</v>
+        <v>0.01310606669583758</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001534755517919928</v>
+        <v>0.01310606669583758</v>
       </c>
       <c r="T7" t="n">
-        <v>49.59191416137173</v>
+        <v>57.93770412153065</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[42.3270024924416, 56.85682583030185]</t>
+          <t>[49.1808995926427, 66.6945086504186]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>23.34198198198242</v>
+        <v>23.45765765765809</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.3401801801806</v>
+        <v>22.30972972973014</v>
       </c>
       <c r="Z7" t="n">
-        <v>24.34378378378424</v>
+        <v>24.60558558558603</v>
       </c>
     </row>
     <row r="8">
@@ -1097,53 +1097,53 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.02000000000047</v>
+        <v>24.93000000000046</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.204458837695711e-12</v>
+        <v>1.145750161413162e-13</v>
       </c>
       <c r="I8" t="n">
-        <v>2.204458837695711e-12</v>
+        <v>1.145750161413162e-13</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>62.16696715062076</v>
+        <v>58.7285963281336</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[48.79518261829013, 75.53875168295139]</t>
+          <t>[46.293639597848184, 71.16355305841901]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.911537760359352e-12</v>
+        <v>2.431388423929093e-12</v>
       </c>
       <c r="O8" t="n">
-        <v>3.911537760359352e-12</v>
+        <v>2.431388423929093e-12</v>
       </c>
       <c r="P8" t="n">
-        <v>0.06918422260157797</v>
+        <v>0.2201316173686543</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.1698158191129595, 0.30818426431611545]</t>
+          <t>[-0.006289474781961069, 0.4465527095192696]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.5627837331447862</v>
+        <v>0.05642857257123302</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5627837331447862</v>
+        <v>0.05642857257123302</v>
       </c>
       <c r="T8" t="n">
-        <v>54.97275410714983</v>
+        <v>59.83240239414675</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[46.44861192874386, 63.49689628555579]</t>
+          <t>[52.485704830195985, 67.17909995809751]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>24.74450450450497</v>
+        <v>24.05657657657702</v>
       </c>
       <c r="Y8" t="n">
-        <v>23.79279279279324</v>
+        <v>23.15819819819863</v>
       </c>
       <c r="Z8" t="n">
-        <v>25.69621621621669</v>
+        <v>24.95495495495541</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.87000000000014</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.488853567683691e-11</v>
+        <v>1.45502943027509e-10</v>
       </c>
       <c r="I9" t="n">
-        <v>2.488853567683691e-11</v>
+        <v>1.45502943027509e-10</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>56.88710615745045</v>
+        <v>54.60630438279137</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[40.74725204145322, 73.02696027344767]</t>
+          <t>[39.083162366182606, 70.12944639940014]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>7.269150614774844e-09</v>
+        <v>7.622009245977779e-09</v>
       </c>
       <c r="O9" t="n">
-        <v>7.269150614774844e-09</v>
+        <v>7.622009245977779e-09</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.4025263860455386</v>
+        <v>-0.2515789912784623</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.69184222601577, -0.11321054607530723]</t>
+          <t>[-0.5534737808126167, 0.0503157982556921]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.007458797398210537</v>
+        <v>0.1001977283572191</v>
       </c>
       <c r="S9" t="n">
-        <v>0.007458797398210537</v>
+        <v>0.1001977283572191</v>
       </c>
       <c r="T9" t="n">
-        <v>54.48203484921489</v>
+        <v>55.83579812395362</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[45.6952789312273, 63.26879076720248]</t>
+          <t>[46.85519056159137, 64.81640568631587]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W9" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X9" t="n">
-        <v>1.465145145145154</v>
+        <v>0.9173173173173232</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.4120720720720743</v>
+        <v>-0.1834634634634646</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.518218218218234</v>
+        <v>2.018098098098111</v>
       </c>
     </row>
     <row r="10">
@@ -1269,53 +1269,53 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.87000000000014</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.243449787580175e-13</v>
+        <v>1.734168364464495e-13</v>
       </c>
       <c r="I10" t="n">
-        <v>1.243449787580175e-13</v>
+        <v>1.734168364464495e-13</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>61.8063837150399</v>
+        <v>61.06080625738195</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[49.99351898765863, 73.61924844242117]</t>
+          <t>[48.11934324302794, 74.00226927173595]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>9.814371537686384e-14</v>
+        <v>2.504885188159278e-12</v>
       </c>
       <c r="O10" t="n">
-        <v>9.814371537686384e-14</v>
+        <v>2.504885188159278e-12</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.02515789912784605</v>
+        <v>-0.1383684452031542</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.2515789912784623, 0.20126319302277018]</t>
+          <t>[-0.37736848691769254, 0.1006315965113842]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.8239341904840236</v>
+        <v>0.24973333819303</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8239341904840236</v>
+        <v>0.24973333819303</v>
       </c>
       <c r="T10" t="n">
-        <v>60.85499190112407</v>
+        <v>53.82319654401317</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[52.75850704390656, 68.95147675834158]</t>
+          <t>[45.756713827224324, 61.88967926080202]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1325,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0.09157157157157059</v>
+        <v>0.5045245245245269</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.7325725725725803</v>
+        <v>-0.3669269269269283</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.9157157157157215</v>
+        <v>1.375975975975982</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.87000000000014</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>5.759437371466447e-11</v>
+        <v>2.922107000813412e-13</v>
       </c>
       <c r="I11" t="n">
-        <v>5.759437371466447e-11</v>
+        <v>2.922107000813412e-13</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>57.72747077184891</v>
+        <v>58.82776617801543</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[41.81143857416224, 73.64350296953558]</t>
+          <t>[44.84819899017431, 72.80733336585655]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.602195874918834e-09</v>
+        <v>7.075362518094153e-11</v>
       </c>
       <c r="O11" t="n">
-        <v>3.602195874918834e-09</v>
+        <v>7.075362518094153e-11</v>
       </c>
       <c r="P11" t="n">
         <v>0.3459211130078854</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.04402632347373103, 0.6478159025420398]</t>
+          <t>[0.10692107129334705, 0.5849211547224238]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.02566224587866106</v>
+        <v>0.00552360648276129</v>
       </c>
       <c r="S11" t="n">
-        <v>0.02566224587866106</v>
+        <v>0.00552360648276129</v>
       </c>
       <c r="T11" t="n">
-        <v>56.35818314239449</v>
+        <v>54.5977045169717</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[47.219203978790546, 65.49716230599844]</t>
+          <t>[46.74648863618117, 62.44892039776224]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>21.61089089089102</v>
+        <v>21.64868868868882</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.51203203203215</v>
+        <v>20.77723723723737</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.70974974974988</v>
+        <v>22.52014014014028</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.87000000000014</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.709077324107966e-12</v>
+        <v>1.387778780781446e-14</v>
       </c>
       <c r="I12" t="n">
-        <v>1.709077324107966e-12</v>
+        <v>1.387778780781446e-14</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>60.74491229301803</v>
+        <v>61.79645084242625</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[44.65712931427012, 76.83269527176593]</t>
+          <t>[47.432741025629056, 76.16016065922344]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1.303401164776119e-09</v>
+        <v>3.786482238865574e-11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.303401164776119e-09</v>
+        <v>3.786482238865574e-11</v>
       </c>
       <c r="P12" t="n">
-        <v>0.5094474573388847</v>
+        <v>0.5849211547224238</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.24528951649649944, 0.77360539818127]</t>
+          <t>[0.34592111300788453, 0.823921196436963]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.0003336335207546615</v>
+        <v>1.163831273109928e-05</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0003336335207546615</v>
+        <v>1.163831273109928e-05</v>
       </c>
       <c r="T12" t="n">
-        <v>52.92320077856172</v>
+        <v>54.01597788797764</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[44.4119331877266, 61.43446836939684]</t>
+          <t>[46.56024853930253, 61.471707236652755]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>21.0156756756758</v>
+        <v>20.77723723723737</v>
       </c>
       <c r="Y12" t="n">
-        <v>20.05417417417429</v>
+        <v>19.90578578578591</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.97717717717731</v>
+        <v>21.64868868868883</v>
       </c>
     </row>
     <row r="13">
@@ -1527,53 +1527,53 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.87000000000014</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1.321165399303936e-14</v>
+        <v>1.743938327081196e-12</v>
       </c>
       <c r="I13" t="n">
-        <v>1.321165399303936e-14</v>
+        <v>1.743938327081196e-12</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>62.16862430676272</v>
+        <v>57.24648135336419</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[47.53712357362312, 76.80012503990233]</t>
+          <t>[42.00097243211307, 72.4919902746153]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>5.392419843985863e-11</v>
+        <v>1.502537427811035e-09</v>
       </c>
       <c r="O13" t="n">
-        <v>5.392419843985863e-11</v>
+        <v>1.502537427811035e-09</v>
       </c>
       <c r="P13" t="n">
-        <v>0.8490790955648082</v>
+        <v>0.8868159442565782</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.6226580034141929, 1.0755001877154236]</t>
+          <t>[0.6100790538502707, 1.1635528346628856]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>1.554351980459501e-09</v>
+        <v>6.593252788178461e-08</v>
       </c>
       <c r="S13" t="n">
-        <v>1.554351980459501e-09</v>
+        <v>6.593252788178461e-08</v>
       </c>
       <c r="T13" t="n">
-        <v>53.50565769073326</v>
+        <v>59.64673070429087</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[46.09917765544421, 60.91213772602231]</t>
+          <t>[51.74345150110771, 67.55000990747405]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1583,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>19.77945945945958</v>
+        <v>19.67645645645658</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.95531531531543</v>
+        <v>18.66740740740752</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.60360360360373</v>
+        <v>20.68550550550563</v>
       </c>
     </row>
     <row r="14">
@@ -1613,53 +1613,53 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.87000000000014</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1.426372353563465e-10</v>
+        <v>2.107203300738547e-13</v>
       </c>
       <c r="I14" t="n">
-        <v>1.426372353563465e-10</v>
+        <v>2.107203300738547e-13</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>52.98029653514161</v>
+        <v>61.60602796482556</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[37.57104222601566, 68.38955084426756]</t>
+          <t>[47.4272856944486, 75.78477023520252]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>1.316892594971364e-08</v>
+        <v>2.855138347968023e-11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.316892594971364e-08</v>
+        <v>2.855138347968023e-11</v>
       </c>
       <c r="P14" t="n">
-        <v>1.10065808684327</v>
+        <v>1.264184431174272</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0.77360539818127, 1.427710775505271]</t>
+          <t>[1.0377633390236554, 1.4906055233248878]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.174563329404577e-08</v>
+        <v>1.154631945610163e-14</v>
       </c>
       <c r="S14" t="n">
-        <v>2.174563329404577e-08</v>
+        <v>1.154631945610163e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>57.16681805643416</v>
+        <v>56.99905518273043</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[48.76518807289689, 65.56844803997143]</t>
+          <t>[49.13060139673761, 64.86750896872326]</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>18.86374374374386</v>
+        <v>18.30048048048059</v>
       </c>
       <c r="Y14" t="n">
-        <v>17.67331331331342</v>
+        <v>17.474894894895</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.0541741741743</v>
+        <v>19.12606606606619</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.87000000000014</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1.349031997222028e-12</v>
+        <v>5.433831162804381e-11</v>
       </c>
       <c r="I15" t="n">
-        <v>1.349031997222028e-12</v>
+        <v>5.433831162804381e-11</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>59.65936831204451</v>
+        <v>57.05283177591744</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[47.35727472058187, 71.96146190350714]</t>
+          <t>[42.87423581485852, 71.23142773697636]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>1.081135181379977e-12</v>
+        <v>2.429920709090538e-10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.081135181379977e-12</v>
+        <v>2.429920709090538e-10</v>
       </c>
       <c r="P15" t="n">
-        <v>1.566079220708425</v>
+        <v>1.46544762419704</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[1.3396581285578089, 1.7925003128590413]</t>
+          <t>[1.1887107337907326, 1.7421845146033474]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>6.639133687258436e-14</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>6.639133687258436e-14</v>
       </c>
       <c r="T15" t="n">
-        <v>52.77918655749731</v>
+        <v>53.32102636633787</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[44.73491782580456, 60.823455289190065]</t>
+          <t>[44.63599607169812, 62.00605666097761]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X15" t="n">
-        <v>17.16966966966977</v>
+        <v>17.56662662662674</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.34552552552562</v>
+        <v>16.55757757757768</v>
       </c>
       <c r="Z15" t="n">
-        <v>17.99381381381392</v>
+        <v>18.57567567567579</v>
       </c>
     </row>
     <row r="16">
@@ -1785,39 +1785,39 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>22.87000000000014</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>9.863221350769891e-13</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="I16" t="n">
-        <v>9.863221350769891e-13</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>61.75609501976778</v>
+        <v>65.13816876458824</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[47.1650100889331, 76.34717995060245]</t>
+          <t>[53.288605759244945, 76.98773176993154]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>6.017653042533766e-11</v>
+        <v>1.953992523340276e-14</v>
       </c>
       <c r="O16" t="n">
-        <v>6.017653042533766e-11</v>
+        <v>1.953992523340276e-14</v>
       </c>
       <c r="P16" t="n">
-        <v>1.817658211986887</v>
+        <v>1.742184514603349</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[1.566079220708425, 2.0692372032653497]</t>
+          <t>[1.54092132158058, 1.9434477076261185]</t>
         </is>
       </c>
       <c r="R16" t="n">
@@ -1827,11 +1827,11 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>56.56220241327769</v>
+        <v>54.16965093476259</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[48.268032114287806, 64.85637271226757]</t>
+          <t>[47.0828663442163, 61.25643552530887]</t>
         </is>
       </c>
       <c r="V16" t="n">
@@ -1841,13 +1841,13 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>16.25395395395405</v>
+        <v>16.55757757757768</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.33823823823833</v>
+        <v>15.82372372372382</v>
       </c>
       <c r="Z16" t="n">
-        <v>17.16966966966977</v>
+        <v>17.29143143143154</v>
       </c>
     </row>
   </sheetData>
